--- a/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/VO/04- variation for MS flexble pipe.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/VO/04- variation for MS flexble pipe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EF1A33-5624-4C20-9B11-F040BCCD084A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABCBDED-CD9E-4B46-8811-299CCC16887B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$34</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>S. #</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Supply and installation of MS Fire Flexible Swing Type Manual, Mild Steel.</t>
+  </si>
+  <si>
+    <t>Attn: Mr. Arsalan.</t>
+  </si>
+  <si>
+    <t>MS Flexible Pipe</t>
   </si>
 </sst>
 </file>
@@ -403,13 +409,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>97790</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>29914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -462,16 +468,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1257882</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>448257</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -495,7 +501,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="409575" y="57150"/>
+          <a:off x="11801475" y="3048000"/>
           <a:ext cx="1134057" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -514,16 +520,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1205726</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>158748</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>396101</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>273048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>78713</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>259688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -540,7 +546,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1491476" y="349248"/>
+          <a:off x="12883376" y="3340098"/>
           <a:ext cx="4890274" cy="681965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -617,16 +623,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -655,7 +661,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="7372350"/>
+          <a:off x="8582025" y="11029950"/>
           <a:ext cx="828675" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -989,9 +995,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:L32"/>
+  <dimension ref="A10:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -1019,264 +1025,283 @@
       </c>
       <c r="B11" s="21"/>
       <c r="G11" s="8">
-        <v>45782</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11" t="s">
+    <row r="19" spans="1:12" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:12" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D20" s="12">
         <v>300</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E20" s="13">
         <v>572</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F20" s="13">
         <v>200</v>
       </c>
-      <c r="G18" s="13">
-        <f>SUM(E18+F18)*D18</f>
+      <c r="G20" s="13">
+        <f>SUM(E20+F20)*D20</f>
         <v>231600</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="23"/>
-    </row>
-    <row r="19" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="31" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="23"/>
+    </row>
+    <row r="21" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="24">
-        <f>SUM(G18:G18)</f>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="24">
+        <f>SUM(G20:G20)</f>
         <v>231600</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="23"/>
-    </row>
-    <row r="22" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="K21" s="14"/>
+      <c r="L21" s="23"/>
+    </row>
+    <row r="24" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B25" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C25" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D25" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E25" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G25" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="6" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+    <row r="26" spans="1:12" s="6" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
         <v>1</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D26" s="12">
         <v>295</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E26" s="13">
         <v>750</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F26" s="13">
         <v>200</v>
       </c>
-      <c r="G24" s="13">
-        <f>SUM(E24+F24)*D24</f>
+      <c r="G26" s="13">
+        <f>SUM(E26+F26)*D26</f>
         <v>280250</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="31" t="s">
+    <row r="27" spans="1:12" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="24">
-        <f>SUM(G24:G24)</f>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="24">
+        <f>SUM(G26:G26)</f>
         <v>280250</v>
       </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="23"/>
-    </row>
-    <row r="26" spans="1:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="J27" s="6">
-        <v>75000</v>
-      </c>
-      <c r="K27" s="6">
-        <f>J27/30</f>
-        <v>2500</v>
-      </c>
-      <c r="L27" s="6">
-        <f>K27/3.28</f>
-        <v>762.19512195121956</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="I28" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="23"/>
+    </row>
+    <row r="28" spans="1:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="18"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="28">
+      <c r="J29" s="6">
+        <v>75000</v>
+      </c>
+      <c r="K29" s="6">
+        <f>J29/30</f>
+        <v>2500</v>
+      </c>
+      <c r="L29" s="6">
+        <f>K29/3.28</f>
+        <v>762.19512195121956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="28">
         <v>30</v>
       </c>
-      <c r="K29" s="28"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I31" s="1"/>
+      <c r="K31" s="28"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I32" s="7"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A16:G16"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/VO/04- variation for MS flexble pipe.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/VO/04- variation for MS flexble pipe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABCBDED-CD9E-4B46-8811-299CCC16887B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF3DC3B-9C0C-4359-933F-F0935588851B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$34</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -240,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -312,18 +312,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -995,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:L34"/>
+  <dimension ref="A10:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,26 +1035,26 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
@@ -1065,17 +1066,17 @@
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>10</v>
       </c>
@@ -1086,7 +1087,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="11" t="s">
         <v>11</v>
@@ -1120,7 +1121,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:12" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1147,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="23"/>
     </row>
-    <row r="21" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="31" t="s">
         <v>9</v>
@@ -1162,7 +1163,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="23"/>
     </row>
-    <row r="24" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>18</v>
       </c>
@@ -1173,7 +1174,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="6" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="6" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>1</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>280250</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="31" t="s">
         <v>9</v>
@@ -1236,11 +1237,11 @@
       <c r="K27" s="14"/>
       <c r="L27" s="23"/>
     </row>
-    <row r="28" spans="1:12" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
@@ -1260,7 +1261,7 @@
         <v>762.19512195121956</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="17"/>
@@ -1270,7 +1271,7 @@
       <c r="G30" s="18"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="17"/>
@@ -1282,15 +1283,30 @@
       <c r="J31" s="28">
         <v>30</v>
       </c>
-      <c r="K31" s="28"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K31" s="28">
+        <f>J29/90</f>
+        <v>833.33333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="33">
+        <f>K31/3.28</f>
+        <v>254.06504065040653</v>
+      </c>
+      <c r="M32">
+        <f>75000/30</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f>M32/3.28</f>
+        <v>762.19512195121956</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I34" s="7"/>
     </row>
   </sheetData>
